--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
     <sheet name="お小遣い一覧取得" sheetId="1" r:id="rId2"/>
     <sheet name="お小遣い登録・更新" sheetId="3" r:id="rId3"/>
     <sheet name="おこづかい交換" sheetId="6" r:id="rId4"/>
-    <sheet name="おねだり登録" sheetId="5" r:id="rId5"/>
+    <sheet name="所持金取得" sheetId="7" r:id="rId5"/>
+    <sheet name="おねだり登録" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -310,16 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返却オブジェクト英名：List&lt;Item&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>品目一覧</t>
     <rPh sb="0" eb="2">
       <t>ヒンモク</t>
@@ -644,6 +635,128 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exchange_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り元</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り元ユーザID</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り先ユーザID</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持金取得API</t>
+    <rPh sb="0" eb="3">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sp20180005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の所持金額総額を取得する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：List&lt;walletItems&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼出パラメータオブジェクト英名：exchangeInfo</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：List&lt;workItem&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -799,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -812,20 +925,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,6 +943,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,18 +969,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1192,9 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1208,51 +1320,51 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1272,7 +1384,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1294,30 +1406,30 @@
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="G15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1325,21 +1437,21 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1347,21 +1459,21 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1369,21 +1481,21 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1394,18 +1506,18 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1444,51 +1556,51 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1497,7 +1609,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1516,31 +1628,31 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -1571,30 +1683,30 @@
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="G18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1602,21 +1714,21 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1626,19 +1738,19 @@
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1646,21 +1758,21 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>62</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -1668,21 +1780,21 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -1690,21 +1802,21 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1712,21 +1824,21 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1734,21 +1846,21 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -1756,21 +1868,21 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1778,21 +1890,21 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1">
         <v>50</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1800,21 +1912,21 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1825,18 +1937,18 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1">
         <v>9</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1844,29 +1956,24 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>86</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1">
         <v>50</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1882,6 +1989,11 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1893,9 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD22"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1910,51 +2020,51 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1963,7 +2073,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1982,161 +2092,161 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -2171,18 +2281,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -2193,51 +2298,51 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2246,7 +2351,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2265,186 +2370,166 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F18:I18"/>
+  <mergeCells count="11">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,6 +2538,218 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
@@ -2479,51 +2776,51 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2551,11 +2848,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2573,11 +2870,11 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2630,12 +2927,12 @@
       <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2648,12 +2945,12 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2672,10 +2969,10 @@
       <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2694,12 +2991,12 @@
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2718,10 +3015,10 @@
       <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -2740,10 +3037,10 @@
       <c r="F23" s="1">
         <v>7</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -2762,10 +3059,10 @@
       <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2784,19 +3081,14 @@
       <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -2806,6 +3098,11 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -321,9 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sp20180001</t>
-  </si>
-  <si>
     <t>労働アイテムマスタ取得API</t>
     <rPh sb="0" eb="2">
       <t>ロウドウ</t>
@@ -341,10 +338,6 @@
     <rPh sb="10" eb="12">
       <t>ヘンキャク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam2018/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -407,10 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sp20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お小遣い一覧を返却する。</t>
     <rPh sb="1" eb="3">
       <t>コヅカ</t>
@@ -555,10 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sp20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お小遣い登録・更新API</t>
     <rPh sb="1" eb="3">
       <t>コヅカ</t>
@@ -625,10 +610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sp20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>おこづかいを知人に付与する。</t>
     <rPh sb="6" eb="8">
       <t>チジン</t>
@@ -708,10 +689,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sp20180005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分の所持金額総額を取得する。</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -758,6 +735,52 @@
     <rPh sb="8" eb="10">
       <t>エイメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/spajam/if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+  </si>
+  <si>
+    <t>if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/</t>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -935,6 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,7 +995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1320,31 +1343,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1360,11 +1383,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1384,7 +1407,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1406,12 +1429,12 @@
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1424,12 +1447,12 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="G15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1437,21 +1460,21 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1459,21 +1482,21 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1481,21 +1504,21 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1506,18 +1529,18 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1556,31 +1579,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1596,11 +1619,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1609,7 +1632,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1628,31 +1651,31 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -1683,30 +1706,30 @@
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="G18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1714,21 +1737,21 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1739,18 +1762,18 @@
         <v>5</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1758,21 +1781,21 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -1780,21 +1803,21 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -1802,21 +1825,21 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1824,21 +1847,21 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1846,21 +1869,21 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -1868,21 +1891,21 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1890,21 +1913,21 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1">
         <v>50</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1912,21 +1935,21 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1937,18 +1960,18 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F29" s="1">
         <v>9</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1956,21 +1979,21 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1">
         <v>50</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2020,31 +2043,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2060,11 +2083,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2073,7 +2096,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2092,161 +2115,161 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -2298,31 +2321,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2338,11 +2361,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2351,7 +2374,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2370,33 +2393,33 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2406,85 +2429,85 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="F14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="F15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -2494,7 +2517,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2502,10 +2525,10 @@
       <c r="E17" s="1">
         <v>9</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -2541,9 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2558,31 +2579,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2598,11 +2619,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2611,7 +2632,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,31 +2651,31 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -2663,7 +2684,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2682,33 +2703,33 @@
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2718,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -2726,10 +2747,10 @@
       <c r="E18" s="1">
         <v>9</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2757,7 +2778,7 @@
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2776,31 +2797,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2816,11 +2837,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2848,11 +2869,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2870,11 +2891,11 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2927,12 +2948,12 @@
       <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2945,12 +2966,12 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2969,10 +2990,10 @@
       <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2991,12 +3012,12 @@
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -3015,10 +3036,10 @@
       <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -3037,10 +3058,10 @@
       <c r="F23" s="1">
         <v>7</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -3059,10 +3080,10 @@
       <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -3081,10 +3102,10 @@
       <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -745,42 +745,42 @@
     <t>if20180001</t>
   </si>
   <si>
+    <t>POST: api/spajam/</t>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/</t>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1329,7 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1354,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1590,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1620,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1997,6 +1999,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2012,11 +2019,6 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2054,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2084,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2332,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2362,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2542,17 +2544,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2590,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2620,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2838,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3110,6 +3112,11 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -3119,11 +3126,6 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -728,59 +728,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返却オブジェクト英名：List&lt;workItem&gt;</t>
+    <t>GET: api/spajam/if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+  </si>
+  <si>
+    <t>POST: api/spajam/</t>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：workItemList</t>
     <rPh sb="0" eb="2">
       <t>ヘンキャク</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>エイメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/spajam/if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180001</t>
-  </si>
-  <si>
-    <t>POST: api/spajam/</t>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1327,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1341,6 +1341,7 @@
     <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
@@ -1356,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1386,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1409,7 +1410,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1567,7 +1568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1592,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1622,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1999,11 +2002,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2019,6 +2017,11 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2086,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2334,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2364,7 +2367,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2544,17 +2547,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2592,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2622,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2810,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2840,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3112,11 +3115,6 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -3126,6 +3124,11 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="117">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -368,9 +368,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>currency_code</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -522,10 +519,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>work_item_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -537,10 +530,6 @@
     <rPh sb="2" eb="4">
       <t>モンゴン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>approval_message</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -782,6 +771,31 @@
       <t>エイメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：workList</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approval_message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
   </si>
 </sst>
 </file>
@@ -1329,9 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1357,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1387,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1410,7 +1422,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1451,7 +1463,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
       <c r="G15" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -1469,10 +1481,10 @@
         <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
@@ -1491,7 +1503,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
@@ -1510,10 +1522,10 @@
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1">
         <v>10</v>
@@ -1532,13 +1544,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -1568,9 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1585,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1595,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1605,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1625,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1637,7 +1647,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -1689,7 +1699,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1723,14 +1733,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
       <c r="G18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -1742,16 +1752,16 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -1767,13 +1777,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -1786,16 +1796,16 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
@@ -1814,10 +1824,10 @@
         <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
@@ -1830,10 +1840,10 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>51</v>
@@ -1852,16 +1862,16 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
@@ -1874,13 +1884,13 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1896,13 +1906,13 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1918,13 +1928,13 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1">
         <v>50</v>
@@ -1943,10 +1953,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
@@ -1965,10 +1975,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1">
         <v>9</v>
@@ -1984,13 +1994,13 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1">
         <v>50</v>
@@ -2033,7 +2043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2049,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2059,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2069,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2089,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2101,7 +2113,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2132,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -2155,16 +2167,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -2182,10 +2194,10 @@
         <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
@@ -2197,13 +2209,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -2218,16 +2230,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
@@ -2239,13 +2251,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2260,13 +2272,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2327,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2337,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2347,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2367,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2379,7 +2391,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2410,16 +2422,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -2434,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
@@ -2452,19 +2464,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -2475,19 +2487,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -2501,10 +2513,10 @@
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -2522,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2585,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2595,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2605,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2625,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2637,7 +2649,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2667,16 +2679,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -2689,7 +2701,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2723,10 +2735,10 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -2744,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -2813,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2843,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -562,26 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>呼出パラメータオブジェクト英名：searchCondition</t>
-    <rPh sb="0" eb="2">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>呼出パラメータオブジェクト英名：workInfo</t>
-    <rPh sb="0" eb="2">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お小遣い登録・更新する。</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -707,7 +687,88 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>呼出パラメータオブジェクト英名：exchangeInfo</t>
+    <t>GET: api/spajam/if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+  </si>
+  <si>
+    <t>POST: api/spajam/</t>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：workItemList</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：workList</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approval_message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
+  </si>
+  <si>
+    <t>呼出パラメータオブジェクト英名：-</t>
     <rPh sb="0" eb="2">
       <t>ヨビダシ</t>
     </rPh>
@@ -715,87 +776,6 @@
       <t>エイメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/spajam/if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180001</t>
-  </si>
-  <si>
-    <t>POST: api/spajam/</t>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返却オブジェクト英名：workItemList</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返却オブジェクト英名：workList</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>approval_message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>work_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>work_item_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>currency_id</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1369,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1399,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1422,7 +1404,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1522,7 +1504,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -1580,7 +1562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1605,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1635,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1647,7 +1631,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1699,7 +1683,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1755,7 +1739,7 @@
         <v>59</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -1931,7 +1915,7 @@
         <v>77</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
@@ -1953,7 +1937,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
@@ -1997,7 +1981,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>51</v>
@@ -2012,6 +1996,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2027,11 +2016,6 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2044,7 +2028,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2071,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2081,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2101,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2113,7 +2097,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2323,7 +2307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2339,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2349,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2359,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2379,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2391,7 +2377,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2422,10 +2408,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>50</v>
@@ -2464,10 +2450,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
@@ -2476,7 +2462,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -2487,10 +2473,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
@@ -2499,7 +2485,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -2513,7 +2499,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>51</v>
@@ -2559,17 +2545,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2597,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2607,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2617,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2637,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2649,7 +2635,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2701,7 +2687,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2735,7 +2721,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
@@ -2825,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2855,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3127,6 +3113,11 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -3136,11 +3127,6 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
     <sheet name="お小遣い一覧取得" sheetId="1" r:id="rId2"/>
     <sheet name="お小遣い登録・更新" sheetId="3" r:id="rId3"/>
     <sheet name="おこづかい交換" sheetId="6" r:id="rId4"/>
-    <sheet name="所持金取得" sheetId="7" r:id="rId5"/>
-    <sheet name="おねだり登録" sheetId="5" r:id="rId6"/>
+    <sheet name="ともだち検索" sheetId="8" r:id="rId5"/>
+    <sheet name="所持金取得" sheetId="7" r:id="rId6"/>
+    <sheet name="おねだり登録" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="137">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -477,9 +478,6 @@
     <t>pay_date</t>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>child_comment</t>
   </si>
   <si>
@@ -487,9 +485,6 @@
   </si>
   <si>
     <t>BLOB</t>
-  </si>
-  <si>
-    <t>parent_comment_id</t>
   </si>
   <si>
     <t>TYNYINT</t>
@@ -589,21 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>target_user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>交換ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exchange_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送り元</t>
     <rPh sb="0" eb="1">
       <t>オク</t>
@@ -677,7 +657,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返却オブジェクト英名：List&lt;walletItems&gt;</t>
+    <t>GET: api/spajam/if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+  </si>
+  <si>
+    <t>POST: api/spajam/</t>
+  </si>
+  <si>
+    <t>if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/spajam/if20180002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：workItemList</t>
     <rPh sb="0" eb="2">
       <t>ヘンキャク</t>
     </rPh>
@@ -687,53 +697,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GET: api/spajam/if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180001</t>
-  </si>
-  <si>
-    <t>POST: api/spajam/</t>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返却オブジェクト英名：workItemList</t>
+    <t>返却オブジェクト英名：workList</t>
     <rPh sb="0" eb="2">
       <t>ヘンキャク</t>
     </rPh>
@@ -743,7 +707,155 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返却オブジェクト英名：workList</t>
+    <t>approval_message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
+  </si>
+  <si>
+    <t>呼出パラメータオブジェクト英名：-</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達検索API</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くにいる友達を検索する</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parent_comment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達一覧</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_namre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：userList</t>
     <rPh sb="0" eb="2">
       <t>ヘンキャク</t>
     </rPh>
@@ -753,27 +865,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>approval_message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>work_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>work_item_name</t>
+    <t>検索日時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：currencyList</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>currency_id</t>
-  </si>
-  <si>
-    <t>呼出パラメータオブジェクト英名：-</t>
-    <rPh sb="0" eb="2">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>エイメイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD HH:MM:SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -929,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -989,6 +1119,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1323,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1381,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1404,7 +1567,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1504,7 +1667,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -1563,7 +1726,7 @@
   <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1589,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1619,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1631,7 +1794,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1683,7 +1846,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1724,7 +1887,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
       <c r="G18" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -1739,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -1764,10 +1927,10 @@
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -1827,7 +1990,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>51</v>
@@ -1849,10 +2012,10 @@
         <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>52</v>
@@ -1871,10 +2034,10 @@
         <v>62</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1893,10 +2056,10 @@
         <v>63</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1912,10 +2075,10 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
@@ -1937,7 +2100,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
@@ -1962,7 +2125,7 @@
         <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1">
         <v>9</v>
@@ -1978,10 +2141,10 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>51</v>
@@ -1996,11 +2159,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2016,6 +2174,11 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,12 +2191,14 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -2045,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2055,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2065,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2085,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2097,7 +2262,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2123,154 +2288,154 @@
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="F12" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="27">
+        <v>3</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>5</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>6</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>7</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D18" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="27">
         <v>1</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -2305,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2325,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2335,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2345,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2377,7 +2542,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2408,16 +2573,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -2429,18 +2594,20 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
@@ -2450,10 +2617,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
@@ -2462,31 +2629,29 @@
         <v>52</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>89</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
@@ -2496,66 +2661,44 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F13:I13"/>
+  <mergeCells count="10">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2564,6 +2707,298 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="1">
+        <v>50</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -2583,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2593,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2603,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2623,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2635,7 +3070,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2687,7 +3122,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2721,7 +3156,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
@@ -2742,7 +3177,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -2773,16 +3208,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2811,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2841,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3113,11 +3546,6 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -3127,6 +3555,11 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="144">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -472,9 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>work_id</t>
-  </si>
-  <si>
     <t>pay_date</t>
   </si>
   <si>
@@ -805,10 +802,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>parent_comment_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,6 +898,42 @@
     <rPh sb="0" eb="2">
       <t>ケイド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attached_image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parent_comment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD HH:MM:SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1059,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1083,6 +1112,33 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1107,6 +1163,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,12 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1131,27 +1190,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1486,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1503,31 +1544,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1543,11 +1584,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1567,7 +1608,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1589,12 +1630,12 @@
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1607,12 +1648,12 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1631,10 +1672,10 @@
       <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1653,10 +1694,10 @@
       <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1667,7 +1708,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -1675,10 +1716,10 @@
       <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1697,10 +1738,10 @@
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1726,7 +1767,7 @@
   <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1741,31 +1782,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1781,11 +1822,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1794,7 +1835,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1813,11 +1854,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1835,9 +1876,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -1846,7 +1887,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1868,12 +1909,12 @@
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1886,12 +1927,12 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="G18" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1902,7 +1943,7 @@
         <v>59</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -1910,10 +1951,10 @@
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1924,18 +1965,18 @@
         <v>5</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1954,10 +1995,10 @@
       <c r="F21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -1976,10 +2017,10 @@
       <c r="F22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -1990,7 +2031,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>51</v>
@@ -1998,10 +2039,10 @@
       <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -2012,18 +2053,18 @@
         <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2034,18 +2075,18 @@
         <v>62</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -2056,18 +2097,18 @@
         <v>63</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -2075,10 +2116,10 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
@@ -2086,10 +2127,10 @@
       <c r="F27" s="1">
         <v>50</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -2100,7 +2141,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
@@ -2108,10 +2149,10 @@
       <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2125,15 +2166,15 @@
         <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
         <v>9</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -2141,10 +2182,10 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>51</v>
@@ -2152,13 +2193,18 @@
       <c r="F30" s="1">
         <v>50</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2174,11 +2220,6 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2209,31 +2250,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2249,11 +2290,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2262,7 +2303,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2281,186 +2322,207 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+      <c r="F12" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16">
         <v>3</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
-        <v>4</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="27">
-        <v>3</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
-        <v>5</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>7</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
-        <v>6</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="27">
+      <c r="E18" s="16">
         <v>1</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
-        <v>7</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>8</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="27">
+      <c r="C19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2473,7 +2535,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2489,31 +2551,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2529,11 +2591,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2542,7 +2604,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2561,12 +2623,12 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2576,28 +2638,28 @@
         <v>5</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>50</v>
@@ -2605,22 +2667,22 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
+      <c r="F13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
@@ -2628,12 +2690,12 @@
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+      <c r="F14" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2643,7 +2705,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
@@ -2651,10 +2713,10 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2672,10 +2734,10 @@
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -2689,16 +2751,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2710,9 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2728,31 +2788,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2768,11 +2828,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2781,7 +2841,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2800,11 +2860,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2822,69 +2882,69 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -2893,7 +2953,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2912,29 +2972,29 @@
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2942,20 +3002,20 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2963,34 +3023,34 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1">
         <v>50</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3002,7 +3062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3017,31 +3079,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3057,11 +3119,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -3070,7 +3132,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3089,11 +3151,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3111,9 +3173,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -3122,7 +3184,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3141,12 +3203,12 @@
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3156,7 +3218,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
@@ -3164,10 +3226,10 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3177,7 +3239,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -3185,10 +3247,10 @@
       <c r="E18" s="1">
         <v>9</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3233,31 +3295,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3273,11 +3335,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -3305,11 +3367,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3327,11 +3389,11 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3384,12 +3446,12 @@
       <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3402,12 +3464,12 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -3426,10 +3488,10 @@
       <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -3448,12 +3510,12 @@
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -3472,10 +3534,10 @@
       <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -3494,10 +3556,10 @@
       <c r="F23" s="1">
         <v>7</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -3516,10 +3578,10 @@
       <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -3538,14 +3600,19 @@
       <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -3555,11 +3622,6 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
     <sheet name="お小遣い一覧取得" sheetId="1" r:id="rId2"/>
     <sheet name="お小遣い登録・更新" sheetId="3" r:id="rId3"/>
     <sheet name="おこづかい交換" sheetId="6" r:id="rId4"/>
-    <sheet name="ともだち検索" sheetId="8" r:id="rId5"/>
-    <sheet name="所持金取得" sheetId="7" r:id="rId6"/>
-    <sheet name="おねだり登録" sheetId="5" r:id="rId7"/>
+    <sheet name="位置登録" sheetId="8" r:id="rId5"/>
+    <sheet name="ともだち検索" sheetId="9" r:id="rId6"/>
+    <sheet name="所持金取得" sheetId="7" r:id="rId7"/>
+    <sheet name="おねだり登録" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="151">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -694,16 +695,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返却オブジェクト英名：workList</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>approval_message</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -738,10 +729,6 @@
   </si>
   <si>
     <t>if20180006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST: api/spajam/if20180006</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -934,6 +921,51 @@
   </si>
   <si>
     <t>pay_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：-</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>workList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currencyList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持金</t>
+    <rPh sb="0" eb="3">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/spajam/if20180007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180007</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -966,7 +998,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +1008,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1193,6 +1231,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1236,6 +1294,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10408920" y="3208020"/>
+          <a:ext cx="2606040" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>所持金取得</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おねだりまでいくら</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1527,9 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1708,7 +1842,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -1764,10 +1898,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J30"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:F20"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1835,7 +1972,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1886,9 +2023,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1924,7 +2059,9 @@
         <v>58</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
       <c r="G18" s="29" t="s">
@@ -1943,7 +2080,7 @@
         <v>59</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -1968,10 +2105,10 @@
         <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="27"/>
@@ -2119,7 +2256,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
@@ -2141,7 +2278,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
@@ -2185,7 +2322,7 @@
         <v>76</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>51</v>
@@ -2198,13 +2335,98 @@
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="44">
+        <v>14</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="44">
+        <v>15</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="44">
+        <v>10</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="44">
+        <v>16</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="44">
+        <v>9</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="44">
+        <v>17</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="44">
+        <v>50</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
+  <mergeCells count="24">
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G34:J34"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2220,10 +2442,16 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2261,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2303,7 +2531,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2337,7 +2565,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>50</v>
@@ -2360,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
@@ -2381,7 +2609,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>50</v>
@@ -2402,7 +2630,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>50</v>
@@ -2423,7 +2651,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>50</v>
@@ -2444,7 +2672,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>68</v>
@@ -2465,7 +2693,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>69</v>
@@ -2486,7 +2714,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>69</v>
@@ -2535,7 +2763,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2592,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2604,7 +2832,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2638,10 +2866,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>71</v>
@@ -2682,7 +2910,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
@@ -2705,7 +2933,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
@@ -2751,16 +2979,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,9 +2998,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2789,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -2799,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2809,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -2829,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2841,7 +3071,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2891,16 +3121,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
@@ -2911,13 +3141,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -2931,13 +3161,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -2946,111 +3176,27 @@
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="1">
-        <v>50</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3060,10 +3206,303 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="44">
+        <v>4</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="44">
+        <v>5</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="44">
+        <v>10</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="44">
+        <v>6</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="44">
+        <v>9</v>
+      </c>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -3120,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -3132,7 +3571,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3184,7 +3623,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3218,7 +3657,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
@@ -3239,7 +3678,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -3270,7 +3709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
@@ -3608,11 +4047,6 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -3622,6 +4056,11 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="154">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -966,6 +966,21 @@
   </si>
   <si>
     <t>if20180007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親フラグ</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isParent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boolean</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1177,6 +1192,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,6 +1214,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1231,26 +1266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1663,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1678,31 +1693,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1718,11 +1733,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1764,12 +1779,12 @@
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1782,12 +1797,12 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1806,10 +1821,10 @@
       <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1828,10 +1843,10 @@
       <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1850,10 +1865,10 @@
       <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1872,10 +1887,10 @@
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1901,10 +1916,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1919,31 +1934,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1959,11 +1974,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1991,11 +2006,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2013,9 +2028,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -2044,12 +2059,12 @@
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2064,12 +2079,12 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2088,10 +2103,10 @@
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2110,10 +2125,10 @@
       <c r="F20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2132,10 +2147,10 @@
       <c r="F21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2154,10 +2169,10 @@
       <c r="F22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -2176,10 +2191,10 @@
       <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -2198,10 +2213,10 @@
       <c r="F24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2220,10 +2235,10 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -2242,10 +2257,10 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -2264,10 +2279,10 @@
       <c r="F27" s="1">
         <v>50</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -2286,10 +2301,10 @@
       <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2308,10 +2323,10 @@
       <c r="F29" s="1">
         <v>9</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -2330,104 +2345,122 @@
       <c r="F30" s="1">
         <v>50</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="44">
+      <c r="A31" s="26">
         <v>14</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="46" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="44">
+      <c r="A32" s="26">
         <v>15</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="26">
         <v>10</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="44">
+      <c r="A33" s="26">
         <v>16</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="26">
         <v>9</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="44">
+      <c r="A34" s="26">
         <v>17</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="26">
         <v>50</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
+        <v>18</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G25:J25"/>
+  <mergeCells count="25">
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
@@ -2442,6 +2475,11 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G25:J25"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G27:J27"/>
@@ -2478,31 +2516,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2518,11 +2556,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2550,12 +2588,12 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -2573,12 +2611,12 @@
       <c r="E12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -2617,10 +2655,10 @@
       <c r="E14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -2638,10 +2676,10 @@
       <c r="E15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -2659,10 +2697,10 @@
       <c r="E16" s="16">
         <v>3</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
@@ -2680,10 +2718,10 @@
       <c r="E17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
@@ -2701,10 +2739,10 @@
       <c r="E18" s="16">
         <v>1</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -2722,10 +2760,10 @@
       <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -2779,31 +2817,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2819,11 +2857,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -2851,12 +2889,12 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2874,10 +2912,10 @@
       <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2895,12 +2933,12 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2918,12 +2956,12 @@
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2941,10 +2979,10 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2962,10 +3000,10 @@
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -2979,16 +3017,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,31 +3056,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3058,11 +3096,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -3090,11 +3128,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3112,9 +3150,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3132,9 +3170,9 @@
       <c r="E13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -3152,9 +3190,9 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -3172,9 +3210,9 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -3229,31 +3267,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3269,11 +3307,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -3301,11 +3339,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3323,9 +3361,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -3353,12 +3391,12 @@
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3371,11 +3409,11 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3420,65 +3458,65 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="44">
+      <c r="A20" s="26">
         <v>4</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="51" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="44">
+      <c r="A21" s="26">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="26">
         <v>10</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="44">
+      <c r="A22" s="26">
         <v>6</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="26">
         <v>9</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3518,31 +3556,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3558,11 +3596,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -3590,11 +3628,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3612,9 +3650,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -3642,12 +3680,12 @@
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3665,10 +3703,10 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3686,10 +3724,10 @@
       <c r="E18" s="1">
         <v>9</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3734,31 +3772,31 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3774,11 +3812,11 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -3806,11 +3844,11 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3828,11 +3866,11 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3885,12 +3923,12 @@
       <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3903,12 +3941,12 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -3927,10 +3965,10 @@
       <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -3949,12 +3987,12 @@
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -3973,10 +4011,10 @@
       <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -3995,10 +4033,10 @@
       <c r="F23" s="1">
         <v>7</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -4017,10 +4055,10 @@
       <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -4039,14 +4077,19 @@
       <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -4056,11 +4099,6 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -778,10 +778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -981,6 +977,10 @@
   </si>
   <si>
     <t>Boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1224,9 +1224,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1234,6 +1231,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1918,8 +1918,8 @@
   </sheetPr>
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2028,9 +2028,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
@@ -2120,10 +2120,10 @@
         <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
@@ -2355,20 +2355,20 @@
         <v>14</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
@@ -2379,7 +2379,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>51</v>
@@ -2401,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>8</v>
@@ -2419,11 +2419,11 @@
         <v>17</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>51</v>
@@ -2441,14 +2441,14 @@
         <v>18</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>64</v>
@@ -2460,6 +2460,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2476,15 +2485,6 @@
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2603,7 +2603,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>50</v>
@@ -2626,13 +2626,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
@@ -2647,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>50</v>
@@ -2668,7 +2668,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>50</v>
@@ -2689,7 +2689,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>50</v>
@@ -2710,7 +2710,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>68</v>
@@ -2731,7 +2731,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>69</v>
@@ -2752,7 +2752,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>69</v>
@@ -2801,7 +2801,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2904,18 +2904,18 @@
         <v>5</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2933,12 +2933,12 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2948,7 +2948,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
@@ -2956,12 +2956,12 @@
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2971,7 +2971,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
@@ -2979,10 +2979,10 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -3000,10 +3000,10 @@
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -3017,16 +3017,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3039,7 +3039,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3150,29 +3150,29 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+        <v>129</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -3182,7 +3182,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>111</v>
@@ -3190,16 +3190,16 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>112</v>
@@ -3210,9 +3210,9 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -3221,7 +3221,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -3361,9 +3361,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -3372,7 +3372,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,17 +3403,17 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3421,13 +3421,13 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>64</v>
@@ -3442,10 +3442,10 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>111</v>
@@ -3462,11 +3462,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -3485,7 +3485,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>51</v>
@@ -3506,7 +3506,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>8</v>
@@ -3539,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -3650,9 +3650,9 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -3661,7 +3661,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
@@ -3716,7 +3716,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -3866,11 +3866,11 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -4085,11 +4085,6 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -4099,6 +4094,11 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="155">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -823,10 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_namre</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -909,10 +905,6 @@
   </si>
   <si>
     <t>approval</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD HH:MM:SS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -981,13 +973,25 @@
   </si>
   <si>
     <t>latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD HH:MM:SS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1224,6 +1228,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1231,9 +1238,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1268,7 +1272,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1328,7 +1332,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1390,7 +1400,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1465,6 +1475,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1500,6 +1527,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1680,16 +1724,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1743,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +1753,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1722,14 +1766,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,28 +1783,28 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1830,7 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1804,7 +1848,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1826,7 +1870,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1848,7 +1892,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1870,7 +1914,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1918,19 +1962,17 @@
   </sheetPr>
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1982,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +1992,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1963,14 +2005,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,17 +2022,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2054,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2028,19 +2070,19 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -2066,7 +2108,7 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2075,7 +2117,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
@@ -2086,7 +2128,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2108,7 +2150,7 @@
       <c r="I19" s="33"/>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -2123,14 +2165,14 @@
         <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2152,7 +2194,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -2174,7 +2216,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -2196,7 +2238,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -2218,7 +2260,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -2240,7 +2282,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -2262,7 +2304,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>10</v>
       </c>
@@ -2284,7 +2326,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -2306,7 +2348,7 @@
       <c r="I28" s="33"/>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>12</v>
       </c>
@@ -2328,7 +2370,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -2350,27 +2392,27 @@
       <c r="I30" s="33"/>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>14</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>15</v>
       </c>
@@ -2392,7 +2434,7 @@
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="26">
         <v>16</v>
       </c>
@@ -2401,7 +2443,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>8</v>
@@ -2414,16 +2456,16 @@
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="26">
         <v>17</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>51</v>
@@ -2436,19 +2478,19 @@
       <c r="I34" s="38"/>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="26">
         <v>18</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>64</v>
@@ -2460,15 +2502,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2485,6 +2518,15 @@
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,21 +2540,21 @@
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2564,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2532,7 +2574,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2545,14 +2587,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2562,17 +2604,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2595,7 +2637,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -2603,7 +2645,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>50</v>
@@ -2618,7 +2660,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -2626,20 +2668,20 @@
         <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -2647,7 +2689,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>50</v>
@@ -2660,7 +2702,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -2668,7 +2710,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>50</v>
@@ -2681,7 +2723,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>5</v>
       </c>
@@ -2689,7 +2731,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>50</v>
@@ -2702,7 +2744,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -2710,7 +2752,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>68</v>
@@ -2723,7 +2765,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>7</v>
       </c>
@@ -2731,7 +2773,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>69</v>
@@ -2744,7 +2786,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>8</v>
       </c>
@@ -2752,7 +2794,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>69</v>
@@ -2765,12 +2807,12 @@
       <c r="H19" s="45"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2801,19 +2843,19 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2865,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2875,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2846,14 +2888,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,17 +2905,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2938,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2912,12 +2954,12 @@
       <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2933,14 +2975,14 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -2956,14 +2998,14 @@
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -2979,12 +3021,12 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -3000,33 +3042,33 @@
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3038,21 +3080,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3104,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3072,7 +3114,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3085,14 +3127,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,17 +3144,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3134,7 +3176,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3150,31 +3192,31 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -3182,7 +3224,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>111</v>
@@ -3190,16 +3232,16 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>112</v>
@@ -3210,18 +3252,18 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3250,20 +3292,20 @@
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3315,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3283,7 +3325,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3296,34 +3338,34 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3387,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3361,21 +3403,21 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3398,7 +3440,7 @@
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3409,13 +3451,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3427,7 +3469,7 @@
         <v>121</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>64</v>
@@ -3436,7 +3478,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -3445,7 +3487,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>111</v>
@@ -3457,16 +3499,16 @@
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>4</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -3476,7 +3518,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>5</v>
       </c>
@@ -3497,7 +3539,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>6</v>
       </c>
@@ -3506,7 +3548,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>8</v>
@@ -3531,7 +3573,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3539,20 +3581,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3562,17 +3604,17 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3585,34 +3627,34 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3634,7 +3676,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3650,21 +3692,21 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3687,7 +3729,7 @@
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3695,7 +3737,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
@@ -3708,7 +3750,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3716,7 +3758,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -3756,19 +3798,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3820,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3788,7 +3830,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3801,14 +3843,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3818,17 +3860,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3850,7 +3892,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3866,13 +3908,13 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3894,17 +3936,17 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -3930,7 +3972,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3948,7 +3990,7 @@
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -3970,7 +4012,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -3994,7 +4036,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -4016,7 +4058,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -4038,7 +4080,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -4060,7 +4102,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -4082,9 +4124,14 @@
       <c r="I25" s="33"/>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -4094,11 +4141,6 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.document/01.設計書/API定義書.xlsx
+++ b/01.document/01.設計書/API定義書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16464" windowHeight="8964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="労働アイテムマスタ取得" sheetId="4" r:id="rId1"/>
@@ -991,7 +991,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1228,9 +1228,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1238,6 +1235,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1272,7 +1272,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1335,7 +1335,7 @@
         <xdr:cNvPr id="2" name="四角形吹き出し 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1475,23 +1475,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1527,23 +1510,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1724,16 +1690,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1709,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1719,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1766,14 +1732,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1783,28 +1749,28 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +1796,7 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1848,7 +1814,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1870,7 +1836,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1892,7 +1858,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1914,7 +1880,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1962,17 +1928,19 @@
   </sheetPr>
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:J35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1950,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +1960,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2005,14 +1973,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,17 +1990,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2022,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2070,19 +2038,19 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -2108,7 +2076,7 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2128,7 +2096,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2150,7 +2118,7 @@
       <c r="I19" s="33"/>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -2172,7 +2140,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2194,7 +2162,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -2216,7 +2184,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -2238,7 +2206,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -2260,7 +2228,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -2282,7 +2250,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -2304,7 +2272,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>10</v>
       </c>
@@ -2326,7 +2294,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -2348,7 +2316,7 @@
       <c r="I28" s="33"/>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>12</v>
       </c>
@@ -2370,7 +2338,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -2392,7 +2360,7 @@
       <c r="I30" s="33"/>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>14</v>
       </c>
@@ -2405,14 +2373,14 @@
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
         <v>15</v>
       </c>
@@ -2434,7 +2402,7 @@
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <v>16</v>
       </c>
@@ -2456,7 +2424,7 @@
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
         <v>17</v>
       </c>
@@ -2478,7 +2446,7 @@
       <c r="I34" s="38"/>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
         <v>18</v>
       </c>
@@ -2502,6 +2470,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2518,15 +2495,6 @@
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2539,22 +2507,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2530,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2540,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2587,14 +2553,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2604,17 +2570,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +2603,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -2660,7 +2626,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -2681,7 +2647,7 @@
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -2702,7 +2668,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -2723,7 +2689,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>5</v>
       </c>
@@ -2744,7 +2710,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -2765,7 +2731,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>7</v>
       </c>
@@ -2786,7 +2752,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>8</v>
       </c>
@@ -2807,12 +2773,12 @@
       <c r="H19" s="45"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2846,16 +2812,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2831,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2875,7 +2841,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2888,14 +2854,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,17 +2871,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +2904,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2954,12 +2920,12 @@
       <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2975,14 +2941,14 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -2998,14 +2964,14 @@
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -3021,12 +2987,12 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -3042,33 +3008,33 @@
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3080,21 +3046,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3104,7 +3070,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3080,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3127,14 +3093,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3144,17 +3110,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3142,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3192,11 +3158,11 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3212,11 +3178,11 @@
       <c r="E13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -3232,11 +3198,11 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -3252,16 +3218,16 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>139</v>
       </c>
@@ -3295,17 +3261,17 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3281,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3325,7 +3291,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3338,14 +3304,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,17 +3321,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3387,7 +3353,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3403,21 +3369,21 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3440,7 +3406,7 @@
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3451,13 +3417,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3478,7 +3444,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -3499,7 +3465,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>4</v>
       </c>
@@ -3518,7 +3484,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>5</v>
       </c>
@@ -3539,7 +3505,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <v>6</v>
       </c>
@@ -3585,16 +3551,16 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3570,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3614,7 +3580,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3627,14 +3593,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3644,17 +3610,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3642,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3692,21 +3658,21 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3729,7 +3695,7 @@
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3750,7 +3716,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3798,19 +3764,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3820,7 +3786,7 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3830,7 +3796,7 @@
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3843,14 +3809,14 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,17 +3826,17 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +3858,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3908,13 +3874,13 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3936,17 +3902,17 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -3972,7 +3938,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3990,7 +3956,7 @@
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -4012,7 +3978,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -4036,7 +4002,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -4058,7 +4024,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -4080,7 +4046,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -4102,7 +4068,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -4124,14 +4090,9 @@
       <c r="I25" s="33"/>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
@@ -4141,6 +4102,11 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
